--- a/Input/~Input Data/WillClackRawData.xlsx
+++ b/Input/~Input Data/WillClackRawData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\OSCRP\CRM\^ CRM\~ Reports and Presentations\~ Run Recon. and Forecasts\Willamette\Run Forecasts\Willamette spring Chinook forecasts\Input\~Input Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45692E38-BA9A-4FD0-9466-97ED428E7B23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2754C6E-CD8E-4ACB-BBE8-3F8DB74255C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="willChSRetRaw" sheetId="4" r:id="rId1"/>
@@ -627,8 +627,8 @@
   </sheetPr>
   <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView topLeftCell="A41" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E64" sqref="E64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1901,9 +1901,7 @@
       <c r="E49" s="3">
         <v>12063</v>
       </c>
-      <c r="F49" s="7">
-        <v>49</v>
-      </c>
+      <c r="F49" s="7"/>
       <c r="G49" s="3">
         <v>1734</v>
       </c>
@@ -1924,9 +1922,7 @@
       <c r="D50" s="3">
         <v>29245</v>
       </c>
-      <c r="E50" s="7">
-        <v>17435</v>
-      </c>
+      <c r="E50" s="7"/>
       <c r="F50" s="3"/>
       <c r="G50" s="3">
         <v>1124</v>
@@ -1945,9 +1941,7 @@
       <c r="C51" s="3">
         <v>1840</v>
       </c>
-      <c r="D51" s="7">
-        <v>37907</v>
-      </c>
+      <c r="D51" s="7"/>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
       <c r="G51" s="3">
@@ -1964,34 +1958,24 @@
       <c r="B52" s="3">
         <v>2021</v>
       </c>
-      <c r="C52" s="7">
-        <v>1926</v>
-      </c>
+      <c r="C52" s="7"/>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
-      <c r="G52" s="7">
-        <v>1572</v>
-      </c>
+      <c r="G52" s="7"/>
       <c r="H52" s="3">
         <v>1948</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A53" s="3">
-        <v>2020</v>
-      </c>
-      <c r="B53" s="3">
-        <v>2022</v>
-      </c>
+      <c r="A53" s="3"/>
+      <c r="B53" s="3"/>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
-      <c r="H53" s="7">
-        <v>2731</v>
-      </c>
+      <c r="H53" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.79" right="0" top="0.73" bottom="0" header="0.5" footer="0.5"/>
@@ -2005,7 +1989,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B41BA78-1E61-48F2-B9AA-E0070D350C27}">
   <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A36" workbookViewId="0">
       <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
@@ -3136,8 +3120,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FEECE3C-E942-4225-BA7E-C46A478C12F9}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3371,15 +3355,9 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
-        <v>2022</v>
-      </c>
-      <c r="B17" s="3">
-        <v>2023</v>
-      </c>
-      <c r="C17" s="3">
-        <v>57317.362000000001</v>
-      </c>
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
       <c r="D17" s="4"/>
     </row>
   </sheetData>
